--- a/RIVN/RIVN.xlsx
+++ b/RIVN/RIVN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/RIVN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="986" documentId="8_{0BE1BCED-FD52-4DF3-8E2F-B426E33A68B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA0FB4AC-5D5A-4FD9-8B9E-AFD49DD318A8}"/>
+  <xr:revisionPtr revIDLastSave="1003" documentId="8_{0BE1BCED-FD52-4DF3-8E2F-B426E33A68B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB72112-B4F9-4F3B-90F6-B85FFB6A4DCC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="2" xr2:uid="{D51120B6-03A2-4B95-8C40-26220937D750}"/>
   </bookViews>
@@ -368,7 +368,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -489,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -503,15 +503,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -537,6 +536,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -660,12 +663,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>28.06</v>
-    <v>11.68</v>
-    <v>2.36</v>
-    <v>0.56999999999999995</v>
-    <v>1.199E-3</v>
-    <v>3.5381999999999997E-2</v>
-    <v>0.02</v>
+    <v>11.06</v>
+    <v>2.3679999999999999</v>
+    <v>-3.94</v>
+    <v>4.3669999999999994E-3</v>
+    <v>-0.25601000000000002</v>
+    <v>0.05</v>
     <v>USD</v>
     <v>Rivian Automotive, Inc. designs, develops and manufactures electric vehicles and accessories. It sells its vehicles directly to customers in the consumer and commercial markets. The Company’s R1 platform offers the first-generation consumer vehicles: the R1T, a two-row five-passenger pickup truck, and the R1S, a three-row seven-passenger sport utility vehicle (SUV). In the commercial market, the Company offers Rivian Commercial Vehicle (RCV) platform. The Company’s vehicle on this platform is Electric Delivery Van (EDV), designed and engineered by Rivian in collaboration with Amazon. It also offers a variety of services, including financing and insurance, vehicle maintenance and repair, charging and FleetOS solutions. Its FleetOS unifies full fleet telematics, charging, maintenance, purchasing and resale into a single platform. It also offers A Better Routeplanner (ABRP) app, which offers electric vehicle (EV) trip planning and has a community of EV drivers in North America and Europe.</v>
     <v>14122</v>
@@ -673,24 +676,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>14600 Myford Road, IRVINE, CA, 92618 US</v>
-    <v>16.84</v>
+    <v>12.25</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45331.875002325782</v>
+    <v>45345.041600219534</v>
     <v>0</v>
-    <v>16.27</v>
-    <v>15974729568</v>
+    <v>11.06</v>
+    <v>10965866520</v>
     <v>RIVIAN AUTOMOTIVE, INC.</v>
     <v>RIVIAN AUTOMOTIVE, INC.</v>
-    <v>16.57</v>
-    <v>16.11</v>
-    <v>16.68</v>
-    <v>16.7</v>
+    <v>11.98</v>
+    <v>15.39</v>
+    <v>11.45</v>
+    <v>11.5</v>
     <v>957717600</v>
     <v>RIVN</v>
     <v>RIVIAN AUTOMOTIVE, INC. (XNAS:RIVN)</v>
-    <v>41743399</v>
-    <v>30762717</v>
+    <v>191810436</v>
+    <v>34753168</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -852,9 +855,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -1293,7 +1296,7 @@
       </c>
       <c r="B2" s="1" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>16.68</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1311,7 +1314,7 @@
       </c>
       <c r="B4" s="2">
         <f>B2*B3</f>
-        <v>15974.729567999999</v>
+        <v>10965.86652</v>
       </c>
     </row>
   </sheetData>
@@ -1336,10 +1339,10 @@
   <dimension ref="A1:AX82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O1:O1048576"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1347,10 +1350,10 @@
     <col min="2" max="2" width="19.26953125" customWidth="1"/>
     <col min="11" max="12" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.453125" style="16" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" style="16" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="9.453125" bestFit="1" customWidth="1"/>
@@ -1372,7 +1375,7 @@
       <c r="N1" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>87</v>
       </c>
       <c r="P1" t="s">
@@ -1384,7 +1387,7 @@
       <c r="R1" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="16" t="s">
         <v>91</v>
       </c>
       <c r="T1" t="s">
@@ -1410,7 +1413,10 @@
       <c r="M2" s="4">
         <v>44547</v>
       </c>
-      <c r="O2" s="18">
+      <c r="N2" s="4">
+        <v>44651</v>
+      </c>
+      <c r="O2" s="17">
         <v>44692</v>
       </c>
       <c r="P2" s="4">
@@ -1423,7 +1429,7 @@
         <f>AO2</f>
         <v>44959</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="17">
         <v>45055</v>
       </c>
       <c r="T2" s="4">
@@ -1439,8 +1445,8 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="4">
@@ -1455,7 +1461,7 @@
       <c r="N3" s="4">
         <v>44561</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="17">
         <v>44651</v>
       </c>
       <c r="P3" s="4">
@@ -1467,7 +1473,7 @@
       <c r="R3" s="4">
         <v>44926</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="17">
         <v>45016</v>
       </c>
       <c r="T3" s="4">
@@ -1479,16 +1485,16 @@
       <c r="V3" s="4">
         <v>45291</v>
       </c>
-      <c r="AL3" s="13">
+      <c r="AL3">
         <v>2019</v>
       </c>
-      <c r="AM3" s="13">
+      <c r="AM3">
         <v>2020</v>
       </c>
-      <c r="AN3" s="13">
+      <c r="AN3">
         <v>2021</v>
       </c>
-      <c r="AO3" s="13">
+      <c r="AO3">
         <v>2022</v>
       </c>
     </row>
@@ -1496,8 +1502,8 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="S4" s="19"/>
+      <c r="O4" s="18"/>
+      <c r="S4" s="18"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
@@ -1518,8 +1524,8 @@
       <c r="B9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="S9" s="19"/>
+      <c r="O9" s="18"/>
+      <c r="S9" s="18"/>
     </row>
     <row r="10" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
@@ -1529,7 +1535,7 @@
         <f>AN10-M10-L10-K10</f>
         <v>920</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="19">
         <v>1227</v>
       </c>
       <c r="P10" s="2">
@@ -1543,7 +1549,7 @@
         <f>AO10-Q10-P10-O10</f>
         <v>8054</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="19">
         <v>7946</v>
       </c>
       <c r="T10" s="2">
@@ -1568,7 +1574,7 @@
         <f>AN11-M11-L11-K11</f>
         <v>1015</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="19">
         <v>2553</v>
       </c>
       <c r="P11" s="2">
@@ -1582,7 +1588,7 @@
         <f>AO11-Q11-P11-O11</f>
         <v>10020</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="19">
         <v>9395</v>
       </c>
       <c r="T11" s="2">
@@ -1599,147 +1605,147 @@
         <v>24337</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="14" t="e">
+      <c r="F12" s="13" t="e">
         <f>(1000000*F16)/F10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="14" t="e">
+      <c r="G12" s="13" t="e">
         <f t="shared" ref="G12:P12" si="0">(1000000*G16)/G10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="14" t="e">
+      <c r="H12" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="14" t="e">
+      <c r="I12" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="14" t="e">
+      <c r="J12" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="14" t="e">
+      <c r="K12" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="14" t="e">
+      <c r="L12" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="14" t="e">
+      <c r="M12" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="13">
         <f t="shared" si="0"/>
         <v>-416304.34782608697</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="20">
         <f t="shared" si="0"/>
         <v>-409127.95436022821</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="13">
         <f t="shared" si="0"/>
         <v>-157600.1790911126</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="13">
         <f>(1000000*Q16)/Q10</f>
         <v>-139277.03523693804</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="13">
         <f t="shared" ref="R12:X12" si="1">(1000000*R16)/R10</f>
         <v>-124161.90712689346</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="20">
         <f t="shared" si="1"/>
         <v>-67329.473949156803</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="13">
         <f t="shared" si="1"/>
         <v>-32594.936708860758</v>
       </c>
-      <c r="U12" s="14">
+      <c r="U12" s="13">
         <f t="shared" si="1"/>
         <v>-30647.648419429453</v>
       </c>
-      <c r="V12" s="14" t="e">
+      <c r="V12" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W12" s="14" t="e">
+      <c r="W12" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X12" s="14" t="e">
+      <c r="X12" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG12" s="14" t="e">
+      <c r="AG12" s="13" t="e">
         <f t="shared" ref="AG12:AV12" si="2">(1000000*AG16)/AG10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH12" s="14" t="e">
+      <c r="AH12" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="14" t="e">
+      <c r="AI12" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ12" s="14" t="e">
+      <c r="AJ12" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK12" s="14" t="e">
+      <c r="AK12" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL12" s="14" t="e">
+      <c r="AL12" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM12" s="14" t="e">
+      <c r="AM12" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN12" s="14">
+      <c r="AN12" s="13">
         <f t="shared" si="2"/>
         <v>-505434.78260869568</v>
       </c>
-      <c r="AO12" s="14">
+      <c r="AO12" s="13">
         <f>(1000000*AO16)/AO10</f>
         <v>-153600.23608105449</v>
       </c>
-      <c r="AP12" s="14" t="e">
+      <c r="AP12" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ12" s="14" t="e">
+      <c r="AQ12" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR12" s="14" t="e">
+      <c r="AR12" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS12" s="14" t="e">
+      <c r="AS12" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT12" s="14" t="e">
+      <c r="AT12" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU12" s="14" t="e">
+      <c r="AU12" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV12" s="14" t="e">
+      <c r="AV12" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1751,8 +1757,8 @@
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="19"/>
-      <c r="S13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="S13" s="18"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
@@ -1771,7 +1777,7 @@
         <f>AN14-M14-L14-K14</f>
         <v>54</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="16">
         <v>95</v>
       </c>
       <c r="P14">
@@ -1784,7 +1790,7 @@
         <f>AO14-Q14-P14-O14</f>
         <v>663</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="16">
         <v>661</v>
       </c>
       <c r="T14">
@@ -1823,7 +1829,7 @@
         <f>AN15-M15-L15-K15</f>
         <v>437</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="21">
         <v>597</v>
       </c>
       <c r="P15" s="6">
@@ -1836,7 +1842,7 @@
         <f>AO15-Q15-P15-O15</f>
         <v>1663</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15" s="21">
         <v>1196</v>
       </c>
       <c r="T15" s="6">
@@ -1898,7 +1904,7 @@
         <f t="shared" ref="N16" si="5">N14-N15</f>
         <v>-383</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="16">
         <f t="shared" ref="O16" si="6">O14-O15</f>
         <v>-502</v>
       </c>
@@ -1914,7 +1920,7 @@
         <f t="shared" ref="R16" si="9">R14-R15</f>
         <v>-1000</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="16">
         <f t="shared" ref="S16" si="10">S14-S15</f>
         <v>-535</v>
       </c>
@@ -2051,7 +2057,7 @@
         <f t="shared" ref="N17" si="19">N16/N14</f>
         <v>-7.0925925925925926</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="22">
         <f t="shared" ref="O17" si="20">O16/O14</f>
         <v>-5.2842105263157899</v>
       </c>
@@ -2067,7 +2073,7 @@
         <f t="shared" ref="R17" si="23">R16/R14</f>
         <v>-1.5082956259426847</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="22">
         <f t="shared" ref="S17" si="24">S16/S14</f>
         <v>-0.80937972768532529</v>
       </c>
@@ -2160,8 +2166,8 @@
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="24"/>
-      <c r="S18" s="24"/>
+      <c r="O18" s="23"/>
+      <c r="S18" s="23"/>
     </row>
     <row r="19" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
@@ -2180,7 +2186,7 @@
         <f>AN19-M19-L19-K19</f>
         <v>726</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="16">
         <v>547</v>
       </c>
       <c r="P19">
@@ -2193,7 +2199,7 @@
         <f>AO19-Q19-P19-O19</f>
         <v>402</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="16">
         <v>496</v>
       </c>
       <c r="T19">
@@ -2232,7 +2238,7 @@
         <f>AN20-M20-L20-K20</f>
         <v>682</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="16">
         <v>530</v>
       </c>
       <c r="P20">
@@ -2245,7 +2251,7 @@
         <f>AO20-Q20-P20-O20</f>
         <v>393</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="16">
         <v>402</v>
       </c>
       <c r="T20">
@@ -2284,7 +2290,7 @@
         <f>AN21-M21-L21-K21</f>
         <v>663</v>
       </c>
-      <c r="O21" s="22">
+      <c r="O21" s="21">
         <v>0</v>
       </c>
       <c r="P21" s="6">
@@ -2297,7 +2303,7 @@
         <f>AO21-Q21-P21-O21</f>
         <v>0</v>
       </c>
-      <c r="S21" s="22">
+      <c r="S21" s="21">
         <v>0</v>
       </c>
       <c r="T21" s="6">
@@ -2359,7 +2365,7 @@
         <f t="shared" ref="N22" si="33">SUM(N19:N21)</f>
         <v>2071</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="24">
         <f t="shared" ref="O22" si="34">SUM(O19:O21)</f>
         <v>1077</v>
       </c>
@@ -2375,7 +2381,7 @@
         <f t="shared" ref="R22" si="37">SUM(R19:R21)</f>
         <v>795</v>
       </c>
-      <c r="S22" s="25">
+      <c r="S22" s="24">
         <f t="shared" ref="S22" si="38">SUM(S19:S21)</f>
         <v>898</v>
       </c>
@@ -2512,7 +2518,7 @@
         <f t="shared" ref="N23" si="47">N16-N22</f>
         <v>-2454</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="16">
         <f t="shared" ref="O23" si="48">O16-O22</f>
         <v>-1579</v>
       </c>
@@ -2528,7 +2534,7 @@
         <f t="shared" ref="R23" si="51">R16-R22</f>
         <v>-1795</v>
       </c>
-      <c r="S23" s="17">
+      <c r="S23" s="16">
         <f t="shared" ref="S23" si="52">S16-S22</f>
         <v>-1433</v>
       </c>
@@ -2665,7 +2671,7 @@
         <f t="shared" ref="N24" si="61">N23/N14</f>
         <v>-45.444444444444443</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="22">
         <f t="shared" ref="O24" si="62">O23/O14</f>
         <v>-16.621052631578948</v>
       </c>
@@ -2681,7 +2687,7 @@
         <f t="shared" ref="R24" si="65">R23/R14</f>
         <v>-2.7073906485671193</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S24" s="22">
         <f t="shared" ref="S24" si="66">S23/S14</f>
         <v>-2.1679273827534038</v>
       </c>
@@ -2782,8 +2788,8 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O25" s="24"/>
-      <c r="S25" s="24"/>
+      <c r="O25" s="23"/>
+      <c r="S25" s="23"/>
     </row>
     <row r="26" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
@@ -2802,7 +2808,7 @@
         <f>AN26-M26-L26-K26</f>
         <v>1</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="16">
         <v>3</v>
       </c>
       <c r="P26">
@@ -2815,7 +2821,7 @@
         <f>AO26-Q26-P26-O26</f>
         <v>99</v>
       </c>
-      <c r="S26" s="17">
+      <c r="S26" s="16">
         <v>124</v>
       </c>
       <c r="T26">
@@ -2854,7 +2860,7 @@
         <f>AN27-M27-L27-K27</f>
         <v>-22</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="16">
         <v>-22</v>
       </c>
       <c r="P27">
@@ -2867,7 +2873,7 @@
         <f>AO27-Q27-P27-O27</f>
         <v>-33</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="16">
         <v>-38</v>
       </c>
       <c r="T27">
@@ -2906,7 +2912,7 @@
         <f>AN28-M28-L28-K28</f>
         <v>17</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="16">
         <v>0</v>
       </c>
       <c r="P28">
@@ -2919,7 +2925,7 @@
         <f>AO28-Q28-P28-O28</f>
         <v>0</v>
       </c>
-      <c r="S28" s="17">
+      <c r="S28" s="16">
         <v>0</v>
       </c>
       <c r="T28">
@@ -2958,7 +2964,7 @@
         <f>AN29-M29-L29-K29</f>
         <v>-3</v>
       </c>
-      <c r="O29" s="22">
+      <c r="O29" s="21">
         <v>5</v>
       </c>
       <c r="P29" s="6">
@@ -2971,7 +2977,7 @@
         <f>AO29-Q29-P29-O29</f>
         <v>6</v>
       </c>
-      <c r="S29" s="22">
+      <c r="S29" s="21">
         <v>-1</v>
       </c>
       <c r="T29" s="6">
@@ -3033,7 +3039,7 @@
         <f t="shared" ref="N30" si="75">N23+SUM(N26:N29)</f>
         <v>-2461</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="16">
         <f t="shared" ref="O30" si="76">O23+SUM(O26:O29)</f>
         <v>-1593</v>
       </c>
@@ -3049,7 +3055,7 @@
         <f t="shared" ref="R30" si="79">R23+SUM(R26:R29)</f>
         <v>-1723</v>
       </c>
-      <c r="S30" s="17">
+      <c r="S30" s="16">
         <f t="shared" ref="S30" si="80">S23+SUM(S26:S29)</f>
         <v>-1348</v>
       </c>
@@ -3163,7 +3169,7 @@
         <f>AN31-M31-L31-K31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="22">
+      <c r="O31" s="21">
         <v>0</v>
       </c>
       <c r="P31" s="6">
@@ -3176,7 +3182,7 @@
         <f>AO31-Q31-P31-O31</f>
         <v>0</v>
       </c>
-      <c r="S31" s="22">
+      <c r="S31" s="21">
         <v>-1</v>
       </c>
       <c r="T31" s="6">
@@ -3238,7 +3244,7 @@
         <f t="shared" ref="N32" si="89">SUM(N30:N31)</f>
         <v>-2461</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O32" s="16">
         <f t="shared" ref="O32" si="90">SUM(O30:O31)</f>
         <v>-1593</v>
       </c>
@@ -3254,7 +3260,7 @@
         <f t="shared" ref="R32" si="93">SUM(R30:R31)</f>
         <v>-1723</v>
       </c>
-      <c r="S32" s="17">
+      <c r="S32" s="16">
         <f t="shared" ref="S32" si="94">SUM(S30:S31)</f>
         <v>-1349</v>
       </c>
@@ -3397,7 +3403,7 @@
         <f t="shared" si="102"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O34" s="26">
+      <c r="O34" s="25">
         <f t="shared" si="102"/>
         <v>-1.7680355160932297</v>
       </c>
@@ -3413,7 +3419,7 @@
         <f t="shared" si="102"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S34" s="26">
+      <c r="S34" s="25">
         <f t="shared" si="102"/>
         <v>-1.4505376344086021</v>
       </c>
@@ -3528,7 +3534,7 @@
       <c r="M36">
         <v>101</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O36" s="16">
         <v>901</v>
       </c>
       <c r="P36">
@@ -3538,7 +3544,7 @@
         <v>918</v>
       </c>
       <c r="R36" s="2"/>
-      <c r="S36" s="17">
+      <c r="S36" s="16">
         <v>930</v>
       </c>
       <c r="T36">
@@ -3569,15 +3575,15 @@
       <c r="B39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O39" s="19"/>
-      <c r="S39" s="19"/>
+      <c r="O39" s="18"/>
+      <c r="S39" s="18"/>
     </row>
     <row r="40" spans="2:50" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="24"/>
-      <c r="S40" s="24"/>
+      <c r="O40" s="23"/>
+      <c r="S40" s="23"/>
     </row>
     <row r="41" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
@@ -3594,7 +3600,7 @@
         <f>AN41</f>
         <v>18133</v>
       </c>
-      <c r="O41" s="20">
+      <c r="O41" s="19">
         <v>16432</v>
       </c>
       <c r="P41" s="2">
@@ -3607,7 +3613,7 @@
         <f>AO41</f>
         <v>11568</v>
       </c>
-      <c r="S41" s="20">
+      <c r="S41" s="19">
         <v>11244</v>
       </c>
       <c r="T41" s="2">
@@ -3641,7 +3647,7 @@
         <f>AN42</f>
         <v>0</v>
       </c>
-      <c r="O42" s="20">
+      <c r="O42" s="19">
         <v>0</v>
       </c>
       <c r="P42" s="2">
@@ -3654,7 +3660,7 @@
         <f>AO42</f>
         <v>0</v>
       </c>
-      <c r="S42" s="20">
+      <c r="S42" s="19">
         <v>0</v>
       </c>
       <c r="T42" s="2">
@@ -3688,7 +3694,7 @@
         <f>AN43</f>
         <v>26</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O43" s="19">
         <v>22</v>
       </c>
       <c r="P43" s="2">
@@ -3701,7 +3707,7 @@
         <f>AO43</f>
         <v>102</v>
       </c>
-      <c r="S43" s="20">
+      <c r="S43" s="19">
         <v>157</v>
       </c>
       <c r="T43" s="2">
@@ -3735,7 +3741,7 @@
         <f>AN44</f>
         <v>274</v>
       </c>
-      <c r="O44" s="20">
+      <c r="O44" s="19">
         <v>494</v>
       </c>
       <c r="P44" s="2">
@@ -3748,7 +3754,7 @@
         <f>AO44</f>
         <v>1348</v>
       </c>
-      <c r="S44" s="20">
+      <c r="S44" s="19">
         <v>1823</v>
       </c>
       <c r="T44" s="2">
@@ -3782,7 +3788,7 @@
         <f>AN45</f>
         <v>126</v>
       </c>
-      <c r="O45" s="27">
+      <c r="O45" s="26">
         <v>98</v>
       </c>
       <c r="P45" s="10">
@@ -3795,7 +3801,7 @@
         <f>AO45</f>
         <v>112</v>
       </c>
-      <c r="S45" s="27">
+      <c r="S45" s="26">
         <v>126</v>
       </c>
       <c r="T45" s="10">
@@ -3854,7 +3860,7 @@
         <f t="shared" ref="N46" si="107">SUM(N41:N45)</f>
         <v>18559</v>
       </c>
-      <c r="O46" s="20">
+      <c r="O46" s="19">
         <f t="shared" ref="O46" si="108">SUM(O41:O45)</f>
         <v>17046</v>
       </c>
@@ -3870,7 +3876,7 @@
         <f t="shared" ref="R46" si="111">SUM(R41:R45)</f>
         <v>13130</v>
       </c>
-      <c r="S46" s="20">
+      <c r="S46" s="19">
         <f t="shared" ref="S46" si="112">SUM(S41:S45)</f>
         <v>13350</v>
       </c>
@@ -3971,8 +3977,8 @@
       <c r="B47" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O47" s="28"/>
-      <c r="S47" s="28"/>
+      <c r="O47" s="27"/>
+      <c r="S47" s="27"/>
     </row>
     <row r="48" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
@@ -3989,7 +3995,7 @@
         <f>AN48</f>
         <v>3183</v>
       </c>
-      <c r="O48" s="20">
+      <c r="O48" s="19">
         <v>3396</v>
       </c>
       <c r="P48" s="2">
@@ -4002,7 +4008,7 @@
         <f>AO48</f>
         <v>3758</v>
       </c>
-      <c r="S48" s="20">
+      <c r="S48" s="19">
         <v>2826</v>
       </c>
       <c r="T48" s="2">
@@ -4036,7 +4042,7 @@
         <f>AN49</f>
         <v>228</v>
       </c>
-      <c r="O49" s="20">
+      <c r="O49" s="19">
         <v>270</v>
       </c>
       <c r="P49" s="2">
@@ -4049,7 +4055,7 @@
         <f>AO49</f>
         <v>330</v>
       </c>
-      <c r="S49" s="20">
+      <c r="S49" s="19">
         <v>325</v>
       </c>
       <c r="T49" s="2">
@@ -4083,7 +4089,7 @@
         <f>AN50</f>
         <v>324</v>
       </c>
-      <c r="O50" s="27">
+      <c r="O50" s="26">
         <v>585</v>
       </c>
       <c r="P50" s="10">
@@ -4096,7 +4102,7 @@
         <f>AO50</f>
         <v>658</v>
       </c>
-      <c r="S50" s="27">
+      <c r="S50" s="26">
         <v>690</v>
       </c>
       <c r="T50" s="10">
@@ -4155,7 +4161,7 @@
         <f t="shared" ref="N51" si="122">SUM(N48:N50)</f>
         <v>3735</v>
       </c>
-      <c r="O51" s="29">
+      <c r="O51" s="28">
         <f t="shared" ref="O51" si="123">SUM(O48:O50)</f>
         <v>4251</v>
       </c>
@@ -4171,7 +4177,7 @@
         <f t="shared" ref="R51" si="126">SUM(R48:R50)</f>
         <v>4746</v>
       </c>
-      <c r="S51" s="29">
+      <c r="S51" s="28">
         <f t="shared" ref="S51" si="127">SUM(S48:S50)</f>
         <v>3841</v>
       </c>
@@ -4268,155 +4274,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:50" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
+    <row r="52" spans="2:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="14">
         <f>F51+F46</f>
         <v>0</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="14">
         <f t="shared" ref="G52:K52" si="134">G51+G46</f>
         <v>0</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="14">
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="14">
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="14">
         <f t="shared" si="134"/>
         <v>4602</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K52" s="14">
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L52" s="14">
         <f>L51+L46</f>
         <v>0</v>
       </c>
-      <c r="M52" s="15">
+      <c r="M52" s="14">
         <f t="shared" ref="M52" si="135">M51+M46</f>
         <v>8488</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N52" s="14">
         <f t="shared" ref="N52" si="136">N51+N46</f>
         <v>22294</v>
       </c>
-      <c r="O52" s="30">
+      <c r="O52" s="29">
         <f t="shared" ref="O52" si="137">O51+O46</f>
         <v>21297</v>
       </c>
-      <c r="P52" s="15">
+      <c r="P52" s="14">
         <f t="shared" ref="P52" si="138">P51+P46</f>
         <v>20171</v>
       </c>
-      <c r="Q52" s="15">
+      <c r="Q52" s="14">
         <f t="shared" ref="Q52" si="139">Q51+Q46</f>
         <v>19023</v>
       </c>
-      <c r="R52" s="15">
+      <c r="R52" s="14">
         <f t="shared" ref="R52" si="140">R51+R46</f>
         <v>17876</v>
       </c>
-      <c r="S52" s="30">
+      <c r="S52" s="29">
         <f t="shared" ref="S52" si="141">S51+S46</f>
         <v>17191</v>
       </c>
-      <c r="T52" s="15">
+      <c r="T52" s="14">
         <f t="shared" ref="T52" si="142">T51+T46</f>
         <v>17227</v>
       </c>
-      <c r="U52" s="15">
+      <c r="U52" s="14">
         <f t="shared" ref="U52" si="143">U51+U46</f>
         <v>16456</v>
       </c>
-      <c r="V52" s="15">
+      <c r="V52" s="14">
         <f t="shared" ref="V52" si="144">V51+V46</f>
         <v>0</v>
       </c>
-      <c r="W52" s="15">
+      <c r="W52" s="14">
         <f t="shared" ref="W52" si="145">W51+W46</f>
         <v>0</v>
       </c>
-      <c r="X52" s="15">
+      <c r="X52" s="14">
         <f t="shared" ref="X52" si="146">X51+X46</f>
         <v>0</v>
       </c>
-      <c r="AG52" s="15">
+      <c r="AG52" s="14">
         <f>AG51+AG46</f>
         <v>0</v>
       </c>
-      <c r="AH52" s="15">
+      <c r="AH52" s="14">
         <f t="shared" ref="AH52:AX52" si="147">AH51+AH46</f>
         <v>0</v>
       </c>
-      <c r="AI52" s="15">
+      <c r="AI52" s="14">
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="AJ52" s="15">
+      <c r="AJ52" s="14">
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="AK52" s="15">
+      <c r="AK52" s="14">
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="AL52" s="15">
+      <c r="AL52" s="14">
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="AM52" s="15">
+      <c r="AM52" s="14">
         <f t="shared" si="147"/>
         <v>4602</v>
       </c>
-      <c r="AN52" s="15">
+      <c r="AN52" s="14">
         <f t="shared" si="147"/>
         <v>22294</v>
       </c>
-      <c r="AO52" s="15">
+      <c r="AO52" s="14">
         <f>AO51+AO46</f>
         <v>17876</v>
       </c>
-      <c r="AP52" s="15">
+      <c r="AP52" s="14">
         <f>AP51+AP46</f>
         <v>0</v>
       </c>
-      <c r="AQ52" s="15">
+      <c r="AQ52" s="14">
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="AR52" s="15">
+      <c r="AR52" s="14">
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="AS52" s="15">
+      <c r="AS52" s="14">
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="AT52" s="15">
+      <c r="AT52" s="14">
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="AU52" s="15">
+      <c r="AU52" s="14">
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="AV52" s="15">
+      <c r="AV52" s="14">
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="AW52" s="15">
+      <c r="AW52" s="14">
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="AX52" s="15">
+      <c r="AX52" s="14">
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
@@ -4425,8 +4431,8 @@
       <c r="B53" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="28"/>
-      <c r="S53" s="28"/>
+      <c r="O53" s="27"/>
+      <c r="S53" s="27"/>
     </row>
     <row r="54" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
@@ -4443,7 +4449,7 @@
         <f>AN54</f>
         <v>483</v>
       </c>
-      <c r="O54" s="20">
+      <c r="O54" s="19">
         <v>571</v>
       </c>
       <c r="P54" s="2">
@@ -4456,7 +4462,7 @@
         <f>AO54</f>
         <v>1000</v>
       </c>
-      <c r="S54" s="20">
+      <c r="S54" s="19">
         <v>984</v>
       </c>
       <c r="T54" s="2">
@@ -4490,7 +4496,7 @@
         <f>AN55</f>
         <v>667</v>
       </c>
-      <c r="O55" s="20">
+      <c r="O55" s="19">
         <v>746</v>
       </c>
       <c r="P55" s="2">
@@ -4503,7 +4509,7 @@
         <f>AO55</f>
         <v>1154</v>
       </c>
-      <c r="S55" s="20">
+      <c r="S55" s="19">
         <v>996</v>
       </c>
       <c r="T55" s="2">
@@ -4538,7 +4544,7 @@
         <f>AN56</f>
         <v>163</v>
       </c>
-      <c r="O56" s="27">
+      <c r="O56" s="26">
         <f>81+126</f>
         <v>207</v>
       </c>
@@ -4553,7 +4559,7 @@
         <f>AO56</f>
         <v>270</v>
       </c>
-      <c r="S56" s="27">
+      <c r="S56" s="26">
         <v>289</v>
       </c>
       <c r="T56" s="10">
@@ -4613,7 +4619,7 @@
         <f t="shared" ref="N57" si="150">SUM(N54:N56)</f>
         <v>1313</v>
       </c>
-      <c r="O57" s="20">
+      <c r="O57" s="19">
         <f t="shared" ref="O57" si="151">SUM(O54:O56)</f>
         <v>1524</v>
       </c>
@@ -4629,7 +4635,7 @@
         <f t="shared" ref="R57" si="154">SUM(R54:R56)</f>
         <v>2424</v>
       </c>
-      <c r="S57" s="20">
+      <c r="S57" s="19">
         <f t="shared" ref="S57" si="155">SUM(S54:S56)</f>
         <v>2269</v>
       </c>
@@ -4730,8 +4736,8 @@
       <c r="B58" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O58" s="28"/>
-      <c r="S58" s="28"/>
+      <c r="O58" s="27"/>
+      <c r="S58" s="27"/>
     </row>
     <row r="59" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2" t="s">
@@ -4748,7 +4754,7 @@
         <f>AN59</f>
         <v>1226</v>
       </c>
-      <c r="O59" s="20">
+      <c r="O59" s="19">
         <v>1227</v>
       </c>
       <c r="P59" s="2">
@@ -4761,7 +4767,7 @@
         <f>AO59</f>
         <v>1231</v>
       </c>
-      <c r="S59" s="20">
+      <c r="S59" s="19">
         <v>2716</v>
       </c>
       <c r="T59" s="2">
@@ -4795,7 +4801,7 @@
         <f>AN60</f>
         <v>218</v>
       </c>
-      <c r="O60" s="20">
+      <c r="O60" s="19">
         <v>256</v>
       </c>
       <c r="P60" s="2">
@@ -4808,7 +4814,7 @@
         <f>AO60</f>
         <v>311</v>
       </c>
-      <c r="S60" s="20">
+      <c r="S60" s="19">
         <v>303</v>
       </c>
       <c r="T60" s="2">
@@ -4842,7 +4848,7 @@
         <f>AN61</f>
         <v>23</v>
       </c>
-      <c r="O61" s="27">
+      <c r="O61" s="26">
         <v>30</v>
       </c>
       <c r="P61" s="10">
@@ -4855,7 +4861,7 @@
         <f>AO61</f>
         <v>111</v>
       </c>
-      <c r="S61" s="27">
+      <c r="S61" s="26">
         <v>161</v>
       </c>
       <c r="T61" s="10">
@@ -4914,7 +4920,7 @@
         <f t="shared" ref="N62" si="164">SUM(N59:N61)</f>
         <v>1467</v>
       </c>
-      <c r="O62" s="29">
+      <c r="O62" s="28">
         <f t="shared" ref="O62" si="165">SUM(O59:O61)</f>
         <v>1513</v>
       </c>
@@ -4930,7 +4936,7 @@
         <f t="shared" ref="R62" si="168">SUM(R59:R61)</f>
         <v>1653</v>
       </c>
-      <c r="S62" s="29">
+      <c r="S62" s="28">
         <f t="shared" ref="S62" si="169">SUM(S59:S61)</f>
         <v>3180</v>
       </c>
@@ -5023,151 +5029,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:50" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="15" t="s">
+    <row r="63" spans="2:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63" s="14">
         <f>F62+F57</f>
         <v>0</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="14">
         <f t="shared" ref="G63:K63" si="176">G62+G57</f>
         <v>0</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="14">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="14">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J63" s="14">
         <f t="shared" si="176"/>
         <v>742</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K63" s="14">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="L63" s="15">
+      <c r="L63" s="14">
         <f>L62+L57</f>
         <v>0</v>
       </c>
-      <c r="M63" s="15">
+      <c r="M63" s="14">
         <f t="shared" ref="M63" si="177">M62+M57</f>
         <v>4201</v>
       </c>
-      <c r="N63" s="15">
+      <c r="N63" s="14">
         <f t="shared" ref="N63" si="178">N62+N57</f>
         <v>2780</v>
       </c>
-      <c r="O63" s="30">
+      <c r="O63" s="29">
         <f t="shared" ref="O63" si="179">O62+O57</f>
         <v>3037</v>
       </c>
-      <c r="P63" s="15">
+      <c r="P63" s="14">
         <f t="shared" ref="P63" si="180">P62+P57</f>
         <v>3303</v>
       </c>
-      <c r="Q63" s="15">
+      <c r="Q63" s="14">
         <f t="shared" ref="Q63" si="181">Q62+Q57</f>
         <v>3686</v>
       </c>
-      <c r="R63" s="15">
+      <c r="R63" s="14">
         <f t="shared" ref="R63" si="182">R62+R57</f>
         <v>4077</v>
       </c>
-      <c r="S63" s="30">
+      <c r="S63" s="29">
         <f t="shared" ref="S63" si="183">S62+S57</f>
         <v>5449</v>
       </c>
-      <c r="T63" s="15">
+      <c r="T63" s="14">
         <f t="shared" ref="T63" si="184">T62+T57</f>
         <v>5513</v>
       </c>
-      <c r="U63" s="15">
+      <c r="U63" s="14">
         <f t="shared" ref="U63" si="185">U62+U57</f>
         <v>5904</v>
       </c>
-      <c r="V63" s="15">
+      <c r="V63" s="14">
         <f t="shared" ref="V63" si="186">V62+V57</f>
         <v>0</v>
       </c>
-      <c r="W63" s="15">
+      <c r="W63" s="14">
         <f t="shared" ref="W63" si="187">W62+W57</f>
         <v>0</v>
       </c>
-      <c r="X63" s="15">
+      <c r="X63" s="14">
         <f t="shared" ref="X63" si="188">X62+X57</f>
         <v>0</v>
       </c>
-      <c r="AG63" s="15">
+      <c r="AG63" s="14">
         <f>AG62+AG57</f>
         <v>0</v>
       </c>
-      <c r="AH63" s="15">
+      <c r="AH63" s="14">
         <f t="shared" ref="AH63:AX63" si="189">AH62+AH57</f>
         <v>0</v>
       </c>
-      <c r="AI63" s="15">
+      <c r="AI63" s="14">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="AJ63" s="15">
+      <c r="AJ63" s="14">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="AK63" s="15">
+      <c r="AK63" s="14">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="AL63" s="15">
+      <c r="AL63" s="14">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="AM63" s="15">
+      <c r="AM63" s="14">
         <f t="shared" si="189"/>
         <v>742</v>
       </c>
-      <c r="AN63" s="15">
+      <c r="AN63" s="14">
         <f t="shared" si="189"/>
         <v>2780</v>
       </c>
-      <c r="AO63" s="15">
+      <c r="AO63" s="14">
         <f>AO62+AO57</f>
         <v>4077</v>
       </c>
-      <c r="AQ63" s="15">
+      <c r="AQ63" s="14">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="AR63" s="15">
+      <c r="AR63" s="14">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="AS63" s="15">
+      <c r="AS63" s="14">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="AT63" s="15">
+      <c r="AT63" s="14">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="AU63" s="15">
+      <c r="AU63" s="14">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="AV63" s="15">
+      <c r="AV63" s="14">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="AW63" s="15">
+      <c r="AW63" s="14">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="AX63" s="15">
+      <c r="AX63" s="14">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
@@ -5176,8 +5182,8 @@
       <c r="B64" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="O64" s="28"/>
-      <c r="S64" s="28"/>
+      <c r="O64" s="27"/>
+      <c r="S64" s="27"/>
     </row>
     <row r="65" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="2" t="s">
@@ -5194,7 +5200,7 @@
         <f>AN65</f>
         <v>0</v>
       </c>
-      <c r="O65" s="20">
+      <c r="O65" s="19">
         <v>0</v>
       </c>
       <c r="P65" s="2">
@@ -5207,7 +5213,7 @@
         <f>AO65</f>
         <v>0</v>
       </c>
-      <c r="S65" s="20">
+      <c r="S65" s="19">
         <v>0</v>
       </c>
       <c r="T65" s="2">
@@ -5224,8 +5230,8 @@
       <c r="B66" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O66" s="28"/>
-      <c r="S66" s="28"/>
+      <c r="O66" s="27"/>
+      <c r="S66" s="27"/>
     </row>
     <row r="67" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="2" t="s">
@@ -5242,7 +5248,7 @@
         <f>AN67</f>
         <v>0</v>
       </c>
-      <c r="O67" s="20">
+      <c r="O67" s="19">
         <v>0</v>
       </c>
       <c r="P67" s="2">
@@ -5255,7 +5261,7 @@
         <f>AO67</f>
         <v>0</v>
       </c>
-      <c r="S67" s="20">
+      <c r="S67" s="19">
         <v>0</v>
       </c>
       <c r="T67" s="2">
@@ -5289,7 +5295,7 @@
         <f>AN68</f>
         <v>1</v>
       </c>
-      <c r="O68" s="20">
+      <c r="O68" s="19">
         <v>1</v>
       </c>
       <c r="P68" s="2">
@@ -5302,7 +5308,7 @@
         <f>AO68</f>
         <v>1</v>
       </c>
-      <c r="S68" s="20">
+      <c r="S68" s="19">
         <v>1</v>
       </c>
       <c r="T68" s="2">
@@ -5336,7 +5342,7 @@
         <f>AN69</f>
         <v>25887</v>
       </c>
-      <c r="O69" s="20">
+      <c r="O69" s="19">
         <v>26226</v>
       </c>
       <c r="P69" s="2">
@@ -5349,7 +5355,7 @@
         <f>AO69</f>
         <v>26926</v>
       </c>
-      <c r="S69" s="20">
+      <c r="S69" s="19">
         <v>27217</v>
       </c>
       <c r="T69" s="2">
@@ -5383,7 +5389,7 @@
         <f>AN70</f>
         <v>-6374</v>
       </c>
-      <c r="O70" s="20">
+      <c r="O70" s="19">
         <v>-7967</v>
       </c>
       <c r="P70" s="2">
@@ -5396,7 +5402,7 @@
         <f>AO70</f>
         <v>-13126</v>
       </c>
-      <c r="S70" s="20">
+      <c r="S70" s="19">
         <v>-14475</v>
       </c>
       <c r="T70" s="2">
@@ -5430,7 +5436,7 @@
         <f>AN71</f>
         <v>0</v>
       </c>
-      <c r="O71" s="27">
+      <c r="O71" s="26">
         <v>0</v>
       </c>
       <c r="P71" s="10">
@@ -5443,7 +5449,7 @@
         <f>AO71</f>
         <v>-2</v>
       </c>
-      <c r="S71" s="27">
+      <c r="S71" s="26">
         <v>-1</v>
       </c>
       <c r="T71" s="10">
@@ -5462,308 +5468,308 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="72" spans="2:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="16" t="s">
+    <row r="72" spans="2:50" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="15">
         <f>SUM(F67:F71)</f>
         <v>0</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G72" s="15">
         <f t="shared" ref="G72:K72" si="190">SUM(G67:G71)</f>
         <v>0</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H72" s="15">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="I72" s="16">
+      <c r="I72" s="15">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J72" s="15">
         <f t="shared" si="190"/>
         <v>-1384</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="15">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="L72" s="16">
+      <c r="L72" s="15">
         <f>SUM(L67:L71)</f>
         <v>0</v>
       </c>
-      <c r="M72" s="16">
+      <c r="M72" s="15">
         <f t="shared" ref="M72" si="191">SUM(M67:M71)</f>
         <v>-3607</v>
       </c>
-      <c r="N72" s="16">
+      <c r="N72" s="15">
         <f t="shared" ref="N72" si="192">SUM(N67:N71)</f>
         <v>19514</v>
       </c>
-      <c r="O72" s="31">
+      <c r="O72" s="30">
         <f t="shared" ref="O72" si="193">SUM(O67:O71)</f>
         <v>18260</v>
       </c>
-      <c r="P72" s="16">
+      <c r="P72" s="15">
         <f t="shared" ref="P72" si="194">SUM(P67:P71)</f>
         <v>16868</v>
       </c>
-      <c r="Q72" s="16">
+      <c r="Q72" s="15">
         <f t="shared" ref="Q72" si="195">SUM(Q67:Q71)</f>
         <v>15337</v>
       </c>
-      <c r="R72" s="16">
+      <c r="R72" s="15">
         <f t="shared" ref="R72" si="196">SUM(R67:R71)</f>
         <v>13799</v>
       </c>
-      <c r="S72" s="31">
+      <c r="S72" s="30">
         <f t="shared" ref="S72" si="197">SUM(S67:S71)</f>
         <v>12742</v>
       </c>
-      <c r="T72" s="16">
+      <c r="T72" s="15">
         <f t="shared" ref="T72" si="198">SUM(T67:T71)</f>
         <v>11714</v>
       </c>
-      <c r="U72" s="16">
+      <c r="U72" s="15">
         <f t="shared" ref="U72" si="199">SUM(U67:U71)</f>
         <v>10552</v>
       </c>
-      <c r="V72" s="16">
+      <c r="V72" s="15">
         <f t="shared" ref="V72" si="200">SUM(V67:V71)</f>
         <v>0</v>
       </c>
-      <c r="W72" s="16">
+      <c r="W72" s="15">
         <f t="shared" ref="W72" si="201">SUM(W67:W71)</f>
         <v>0</v>
       </c>
-      <c r="X72" s="16">
+      <c r="X72" s="15">
         <f t="shared" ref="X72" si="202">SUM(X67:X71)</f>
         <v>0</v>
       </c>
-      <c r="AG72" s="16">
+      <c r="AG72" s="15">
         <f>SUM(AG67:AG71)</f>
         <v>0</v>
       </c>
-      <c r="AH72" s="16">
+      <c r="AH72" s="15">
         <f t="shared" ref="AH72:AX72" si="203">SUM(AH67:AH71)</f>
         <v>0</v>
       </c>
-      <c r="AI72" s="16">
+      <c r="AI72" s="15">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AJ72" s="16">
+      <c r="AJ72" s="15">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AK72" s="16">
+      <c r="AK72" s="15">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AL72" s="16">
+      <c r="AL72" s="15">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AM72" s="16">
+      <c r="AM72" s="15">
         <f t="shared" si="203"/>
         <v>-1384</v>
       </c>
-      <c r="AN72" s="16">
+      <c r="AN72" s="15">
         <f t="shared" si="203"/>
         <v>19514</v>
       </c>
-      <c r="AO72" s="16">
+      <c r="AO72" s="15">
         <f>SUM(AO67:AO71)</f>
         <v>13799</v>
       </c>
-      <c r="AP72" s="16">
+      <c r="AP72" s="15">
         <f>SUM(AP67:AP71)</f>
         <v>0</v>
       </c>
-      <c r="AQ72" s="16">
+      <c r="AQ72" s="15">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AR72" s="16">
+      <c r="AR72" s="15">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AS72" s="16">
+      <c r="AS72" s="15">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AT72" s="16">
+      <c r="AT72" s="15">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AU72" s="16">
+      <c r="AU72" s="15">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AV72" s="16">
+      <c r="AV72" s="15">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AW72" s="16">
+      <c r="AW72" s="15">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AX72" s="16">
+      <c r="AX72" s="15">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:50" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
+    <row r="73" spans="2:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F73" s="14">
         <f>F72+F63+F65</f>
         <v>0</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="14">
         <f t="shared" ref="G73:K73" si="204">G72+G63+G65</f>
         <v>0</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="14">
         <f t="shared" si="204"/>
         <v>0</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="14">
         <f t="shared" si="204"/>
         <v>0</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J73" s="14">
         <f t="shared" si="204"/>
         <v>4602</v>
       </c>
-      <c r="K73" s="15">
+      <c r="K73" s="14">
         <f t="shared" si="204"/>
         <v>0</v>
       </c>
-      <c r="L73" s="15">
+      <c r="L73" s="14">
         <f>L72+L63+L65</f>
         <v>0</v>
       </c>
-      <c r="M73" s="15">
+      <c r="M73" s="14">
         <f t="shared" ref="M73" si="205">M72+M63+M65</f>
         <v>8488</v>
       </c>
-      <c r="N73" s="15">
+      <c r="N73" s="14">
         <f t="shared" ref="N73" si="206">N72+N63+N65</f>
         <v>22294</v>
       </c>
-      <c r="O73" s="30">
+      <c r="O73" s="29">
         <f t="shared" ref="O73" si="207">O72+O63+O65</f>
         <v>21297</v>
       </c>
-      <c r="P73" s="15">
+      <c r="P73" s="14">
         <f t="shared" ref="P73" si="208">P72+P63+P65</f>
         <v>20171</v>
       </c>
-      <c r="Q73" s="15">
+      <c r="Q73" s="14">
         <f t="shared" ref="Q73" si="209">Q72+Q63+Q65</f>
         <v>19023</v>
       </c>
-      <c r="R73" s="15">
+      <c r="R73" s="14">
         <f t="shared" ref="R73" si="210">R72+R63+R65</f>
         <v>17876</v>
       </c>
-      <c r="S73" s="30">
+      <c r="S73" s="29">
         <f t="shared" ref="S73" si="211">S72+S63+S65</f>
         <v>18191</v>
       </c>
-      <c r="T73" s="15">
+      <c r="T73" s="14">
         <f t="shared" ref="T73" si="212">T72+T63+T65</f>
         <v>17227</v>
       </c>
-      <c r="U73" s="15">
+      <c r="U73" s="14">
         <f t="shared" ref="U73" si="213">U72+U63+U65</f>
         <v>16456</v>
       </c>
-      <c r="V73" s="15">
+      <c r="V73" s="14">
         <f t="shared" ref="V73" si="214">V72+V63+V65</f>
         <v>0</v>
       </c>
-      <c r="W73" s="15">
+      <c r="W73" s="14">
         <f t="shared" ref="W73" si="215">W72+W63+W65</f>
         <v>0</v>
       </c>
-      <c r="X73" s="15">
+      <c r="X73" s="14">
         <f t="shared" ref="X73" si="216">X72+X63+X65</f>
         <v>0</v>
       </c>
-      <c r="AG73" s="15">
+      <c r="AG73" s="14">
         <f>AG72+AG63+AG65</f>
         <v>0</v>
       </c>
-      <c r="AH73" s="15">
+      <c r="AH73" s="14">
         <f t="shared" ref="AH73:AX73" si="217">AH72+AH63+AH65</f>
         <v>0</v>
       </c>
-      <c r="AI73" s="15">
+      <c r="AI73" s="14">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AJ73" s="15">
+      <c r="AJ73" s="14">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AK73" s="15">
+      <c r="AK73" s="14">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AL73" s="15">
+      <c r="AL73" s="14">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AM73" s="15">
+      <c r="AM73" s="14">
         <f t="shared" si="217"/>
         <v>4602</v>
       </c>
-      <c r="AN73" s="15">
+      <c r="AN73" s="14">
         <f t="shared" si="217"/>
         <v>22294</v>
       </c>
-      <c r="AO73" s="15">
+      <c r="AO73" s="14">
         <f t="shared" si="217"/>
         <v>17876</v>
       </c>
-      <c r="AP73" s="15">
+      <c r="AP73" s="14">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AQ73" s="15">
+      <c r="AQ73" s="14">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AR73" s="15">
+      <c r="AR73" s="14">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AS73" s="15">
+      <c r="AS73" s="14">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AT73" s="15">
+      <c r="AT73" s="14">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AU73" s="15">
+      <c r="AU73" s="14">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AV73" s="15">
+      <c r="AV73" s="14">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AW73" s="15">
+      <c r="AW73" s="14">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AX73" s="15">
+      <c r="AX73" s="14">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
@@ -5772,8 +5778,8 @@
       <c r="B74" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O74" s="19"/>
-      <c r="S74" s="19"/>
+      <c r="O74" s="18"/>
+      <c r="S74" s="18"/>
     </row>
     <row r="75" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B75" s="2" t="s">
@@ -5796,7 +5802,7 @@
         <f>AN75</f>
         <v>-2622</v>
       </c>
-      <c r="O75" s="17">
+      <c r="O75" s="16">
         <v>-1034</v>
       </c>
       <c r="P75">
@@ -5809,7 +5815,7 @@
         <f>AO75</f>
         <v>-5052</v>
       </c>
-      <c r="S75" s="17">
+      <c r="S75" s="16">
         <v>-1521</v>
       </c>
       <c r="T75">
@@ -5852,7 +5858,7 @@
         <f>AN76</f>
         <v>-1794</v>
       </c>
-      <c r="O76" s="22">
+      <c r="O76" s="21">
         <v>-418</v>
       </c>
       <c r="P76" s="6">
@@ -5865,7 +5871,7 @@
         <f>AO76</f>
         <v>-1369</v>
       </c>
-      <c r="S76" s="22">
+      <c r="S76" s="21">
         <v>-283</v>
       </c>
       <c r="T76" s="6">
@@ -5927,7 +5933,7 @@
         <f t="shared" ref="N77" si="220">SUM(N75:N76)</f>
         <v>-4416</v>
       </c>
-      <c r="O77" s="17">
+      <c r="O77" s="16">
         <f t="shared" ref="O77" si="221">SUM(O75:O76)</f>
         <v>-1452</v>
       </c>
@@ -5943,7 +5949,7 @@
         <f t="shared" ref="R77" si="224">SUM(R75:R76)</f>
         <v>-6421</v>
       </c>
-      <c r="S77" s="17">
+      <c r="S77" s="16">
         <f t="shared" ref="S77" si="225">SUM(S75:S76)</f>
         <v>-1804</v>
       </c>
@@ -6062,7 +6068,7 @@
         <f>AN79</f>
         <v>16188</v>
       </c>
-      <c r="O79" s="17">
+      <c r="O79" s="16">
         <v>1</v>
       </c>
       <c r="P79">
@@ -6075,7 +6081,7 @@
         <f>AO79</f>
         <v>102</v>
       </c>
-      <c r="S79" s="17">
+      <c r="S79" s="16">
         <f>3+1485</f>
         <v>1488</v>
       </c>
@@ -6122,7 +6128,7 @@
         <f>AN80</f>
         <v>570</v>
       </c>
-      <c r="O80" s="17">
+      <c r="O80" s="16">
         <v>317</v>
       </c>
       <c r="P80">
@@ -6135,7 +6141,7 @@
         <f>AO80</f>
         <v>987</v>
       </c>
-      <c r="S80" s="17">
+      <c r="S80" s="16">
         <v>183</v>
       </c>
       <c r="T80">
@@ -6178,7 +6184,7 @@
         <f>AN81</f>
         <v>0</v>
       </c>
-      <c r="O81" s="17">
+      <c r="O81" s="16">
         <v>0</v>
       </c>
       <c r="P81">
@@ -6191,7 +6197,7 @@
         <f>AO81</f>
         <v>0</v>
       </c>
-      <c r="S81" s="17">
+      <c r="S81" s="16">
         <v>0</v>
       </c>
       <c r="T81">
@@ -6234,7 +6240,7 @@
         <f>AN82</f>
         <v>0</v>
       </c>
-      <c r="O82" s="17">
+      <c r="O82" s="16">
         <v>0</v>
       </c>
       <c r="P82">
@@ -6247,7 +6253,7 @@
         <f>AO82</f>
         <v>0</v>
       </c>
-      <c r="S82" s="17">
+      <c r="S82" s="16">
         <v>0</v>
       </c>
       <c r="T82">
